--- a/data/trans_orig/P36B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>12123</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6246</v>
+        <v>7161</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20519</v>
+        <v>21538</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01176922493531318</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006063819003773709</v>
+        <v>0.006951672704556904</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01991946141049162</v>
+        <v>0.02090896704904121</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -764,19 +764,19 @@
         <v>15507</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8572</v>
+        <v>8798</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25415</v>
+        <v>26992</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01179102355185622</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00651797287442639</v>
+        <v>0.006689737906998101</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01932501151439537</v>
+        <v>0.0205240990955201</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -785,19 +785,19 @@
         <v>27630</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18245</v>
+        <v>18366</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39829</v>
+        <v>40998</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0117814488362165</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007779765791632796</v>
+        <v>0.007831325456302156</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0169829092190066</v>
+        <v>0.01748160909541075</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>73084</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58523</v>
+        <v>58165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91332</v>
+        <v>90450</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07094862964176346</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05681319279100078</v>
+        <v>0.05646570447120509</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08866333057585657</v>
+        <v>0.08780684139695506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -835,19 +835,19 @@
         <v>77079</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61283</v>
+        <v>63444</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96965</v>
+        <v>96945</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05861000669557676</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04659870326725738</v>
+        <v>0.04824221039325217</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07373131272058117</v>
+        <v>0.07371589161122065</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>148</v>
@@ -856,19 +856,19 @@
         <v>150163</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>127694</v>
+        <v>126790</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>174189</v>
+        <v>175535</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06402956191653363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05444878260688425</v>
+        <v>0.05406323096747008</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07427432448823987</v>
+        <v>0.07484807339143766</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>443063</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>410886</v>
+        <v>410800</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>473766</v>
+        <v>475963</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4301172224013439</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3988798203621602</v>
+        <v>0.3987966702895287</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4599229019435717</v>
+        <v>0.4620553098263723</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>630</v>
@@ -906,19 +906,19 @@
         <v>645796</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>607908</v>
+        <v>611278</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>679731</v>
+        <v>683604</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.491057708312691</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4622480642581183</v>
+        <v>0.4648100993747299</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5168609790297676</v>
+        <v>0.5198064708968485</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1079</v>
@@ -927,19 +927,19 @@
         <v>1088860</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1042227</v>
+        <v>1038973</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1135272</v>
+        <v>1137966</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4642905131379198</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4444061647089714</v>
+        <v>0.4430186940759849</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4840807690939853</v>
+        <v>0.4852293380359407</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>454918</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>424139</v>
+        <v>423338</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>486744</v>
+        <v>485475</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4416258644139659</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4117455678298464</v>
+        <v>0.4109678213800684</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4725218016470283</v>
+        <v>0.4712895357710946</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>544</v>
@@ -977,19 +977,19 @@
         <v>547038</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>513095</v>
+        <v>511384</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>585815</v>
+        <v>585504</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4159627469367551</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3901524340875593</v>
+        <v>0.388852017098583</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4454484307271347</v>
+        <v>0.4452119958694506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>999</v>
@@ -998,19 +998,19 @@
         <v>1001956</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>958024</v>
+        <v>955996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1052541</v>
+        <v>1048874</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4272348866979131</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4085019948027271</v>
+        <v>0.4076373124885395</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4488041322366512</v>
+        <v>0.4472404771132392</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>46910</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34184</v>
+        <v>35046</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62257</v>
+        <v>61350</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04553905860761357</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0331855666763655</v>
+        <v>0.03402195523041503</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06043818946867509</v>
+        <v>0.0595575124902346</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -1048,19 +1048,19 @@
         <v>29693</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20019</v>
+        <v>20983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>41563</v>
+        <v>42939</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02257851450312094</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01522205027301589</v>
+        <v>0.01595528850974381</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03160430147975417</v>
+        <v>0.03265024034607685</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>74</v>
@@ -1069,19 +1069,19 @@
         <v>76603</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>59943</v>
+        <v>60849</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>92810</v>
+        <v>95564</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03266358941141701</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02555987318073622</v>
+        <v>0.02594586507133715</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03957435662194978</v>
+        <v>0.04074842353942926</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>9704</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4517</v>
+        <v>4653</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18266</v>
+        <v>18689</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005736753407953683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00267063556600971</v>
+        <v>0.0027507225175765</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01079893967717821</v>
+        <v>0.01104877308955814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1194,19 +1194,19 @@
         <v>22108</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14343</v>
+        <v>13771</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32839</v>
+        <v>33395</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01393386337224341</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009039887910686098</v>
+        <v>0.008679282685940131</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02069750271400471</v>
+        <v>0.02104826511134845</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1215,19 +1215,19 @@
         <v>31811</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21688</v>
+        <v>22003</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45061</v>
+        <v>47310</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009704187008874529</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006615899752293619</v>
+        <v>0.006712013546924253</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01374622198466252</v>
+        <v>0.01443219560750543</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>39037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27715</v>
+        <v>29066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53476</v>
+        <v>52929</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02307865541446748</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0163852335981368</v>
+        <v>0.01718358922074366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03161508190574377</v>
+        <v>0.03129149937549681</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -1265,19 +1265,19 @@
         <v>69003</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>54097</v>
+        <v>54129</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86027</v>
+        <v>87764</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04349050808058884</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03409597458139069</v>
+        <v>0.03411615982104366</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05422029003452872</v>
+        <v>0.05531508902775627</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>106</v>
@@ -1286,19 +1286,19 @@
         <v>108040</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>88747</v>
+        <v>89141</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>130770</v>
+        <v>130246</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03295807273074264</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02707276685512806</v>
+        <v>0.0271928665608669</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03989206129814103</v>
+        <v>0.03973218504518301</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>633966</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>595014</v>
+        <v>592455</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>675373</v>
+        <v>669700</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3747981509404141</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3517701111852146</v>
+        <v>0.3502573882647468</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3992777210207842</v>
+        <v>0.395923931344572</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>671</v>
@@ -1336,19 +1336,19 @@
         <v>685172</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>645512</v>
+        <v>640661</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>722104</v>
+        <v>722313</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4318455815553284</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4068492047329318</v>
+        <v>0.4037914109813311</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4551226750567647</v>
+        <v>0.4552549132042455</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1285</v>
@@ -1357,19 +1357,19 @@
         <v>1319138</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1259702</v>
+        <v>1262668</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1373559</v>
+        <v>1373623</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4024093326927407</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3842780679802058</v>
+        <v>0.3851828512516312</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4190105847803617</v>
+        <v>0.4190301595708035</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>830309</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>787856</v>
+        <v>794253</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>868163</v>
+        <v>873866</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4908753861774617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4657773753319166</v>
+        <v>0.4695595919334719</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5132544000853207</v>
+        <v>0.516626493569411</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>722</v>
@@ -1407,19 +1407,19 @@
         <v>733651</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>695498</v>
+        <v>694988</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>772160</v>
+        <v>775475</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4624009741376063</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4383541831058455</v>
+        <v>0.4380322471841227</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4866720764009873</v>
+        <v>0.4887615668856505</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1533</v>
@@ -1428,19 +1428,19 @@
         <v>1563961</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1507468</v>
+        <v>1508287</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1621601</v>
+        <v>1619197</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4770936582775632</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4598603528315265</v>
+        <v>0.4601102313114396</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4946770701038626</v>
+        <v>0.493943898577631</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>178470</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>154598</v>
+        <v>153859</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>206223</v>
+        <v>206418</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1055110540597031</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0913979300549414</v>
+        <v>0.09096068631012728</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1219182401396224</v>
+        <v>0.1220336325282154</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -1478,19 +1478,19 @@
         <v>76680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60433</v>
+        <v>59143</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95192</v>
+        <v>97798</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04832907285423307</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03808949692814406</v>
+        <v>0.03727599595159058</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05999677410776593</v>
+        <v>0.0616394353288077</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -1499,19 +1499,19 @@
         <v>255150</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>228685</v>
+        <v>225310</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>286746</v>
+        <v>287379</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07783474929007887</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06976144052707212</v>
+        <v>0.06873191277780635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08747320957868807</v>
+        <v>0.08766622786082984</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>6325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1552</v>
+        <v>1536</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16119</v>
+        <v>14716</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01147142878687496</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002814951187172393</v>
+        <v>0.002785217756016495</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02923334279184569</v>
+        <v>0.02668798645434672</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1624,19 +1624,19 @@
         <v>7181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2969</v>
+        <v>2990</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13819</v>
+        <v>13744</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.015104038109357</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006244541568957999</v>
+        <v>0.006288461573987983</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0290674998027117</v>
+        <v>0.02890981955403197</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1645,19 +1645,19 @@
         <v>13506</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7365</v>
+        <v>6852</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23935</v>
+        <v>24273</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01315330830744887</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007172178226817583</v>
+        <v>0.006672933095875935</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02330943102652626</v>
+        <v>0.02363927283322756</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>25645</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17201</v>
+        <v>16898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36639</v>
+        <v>37667</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04650852247687557</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03119528271284165</v>
+        <v>0.03064593789794342</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0664457389681736</v>
+        <v>0.06831115862481656</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1695,19 +1695,19 @@
         <v>26288</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17593</v>
+        <v>17640</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37999</v>
+        <v>37949</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05529466740388577</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03700559939805937</v>
+        <v>0.03710503790525006</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07992794089809901</v>
+        <v>0.07982359273841533</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -1716,19 +1716,19 @@
         <v>51933</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38308</v>
+        <v>39239</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67663</v>
+        <v>68930</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05057646260081822</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03730749059811118</v>
+        <v>0.03821362176713574</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06589565420130382</v>
+        <v>0.06712939598137165</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>237102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>215598</v>
+        <v>212507</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>263577</v>
+        <v>261120</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4299930045023419</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3909956369949924</v>
+        <v>0.3853905984652227</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4780080981977036</v>
+        <v>0.4735517362085347</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>197</v>
@@ -1766,19 +1766,19 @@
         <v>208233</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>185806</v>
+        <v>186303</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>230656</v>
+        <v>231107</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4380036041032186</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3908308379458015</v>
+        <v>0.3918753163157567</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4851701638109369</v>
+        <v>0.4861189274085813</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>426</v>
@@ -1787,19 +1787,19 @@
         <v>445334</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>411099</v>
+        <v>412834</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>478301</v>
+        <v>481408</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4337018711103884</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4003613667299441</v>
+        <v>0.4020505250358983</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4658072325550767</v>
+        <v>0.4688337154880394</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>237866</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>213834</v>
+        <v>215358</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>259003</v>
+        <v>261266</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4313790429562249</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3877954953193717</v>
+        <v>0.3905605260522114</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4697129562392146</v>
+        <v>0.4738162739121591</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>206</v>
@@ -1837,19 +1837,19 @@
         <v>217179</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>194381</v>
+        <v>195159</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>239135</v>
+        <v>241096</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4568217521374279</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4088668611477785</v>
+        <v>0.4105045330504795</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5030045321643037</v>
+        <v>0.5071293242869939</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>433</v>
@@ -1858,19 +1858,19 @@
         <v>455045</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>423742</v>
+        <v>420846</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>491615</v>
+        <v>486362</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4431588870630349</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4126734365558375</v>
+        <v>0.409853349998225</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.478774146052617</v>
+        <v>0.473658360169583</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>44470</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33262</v>
+        <v>32885</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59343</v>
+        <v>58668</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08064800127768268</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06032190017903151</v>
+        <v>0.05963753735614932</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.107621711940382</v>
+        <v>0.106397418894487</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -1908,19 +1908,19 @@
         <v>16533</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9502</v>
+        <v>9367</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25675</v>
+        <v>25167</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03477593824611076</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0199871085248504</v>
+        <v>0.01970362276721624</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05400635861031626</v>
+        <v>0.05293747484606035</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>59</v>
@@ -1929,19 +1929,19 @@
         <v>61003</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46925</v>
+        <v>46956</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>78811</v>
+        <v>77131</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05940947091830959</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04569886447111749</v>
+        <v>0.04572906630152249</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0767524377684316</v>
+        <v>0.07511592696812941</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>28153</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18939</v>
+        <v>19577</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41687</v>
+        <v>42560</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008601467050211732</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005786375684951128</v>
+        <v>0.005981303231503192</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01273681233689338</v>
+        <v>0.01300333565923325</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2054,19 +2054,19 @@
         <v>44795</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34012</v>
+        <v>31485</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60096</v>
+        <v>58987</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01326413667225658</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01007116117856879</v>
+        <v>0.009322864701981721</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01779496325492396</v>
+        <v>0.01746647689065</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -2075,19 +2075,19 @@
         <v>72947</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56219</v>
+        <v>56762</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>92325</v>
+        <v>92267</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01096931194011165</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008453802253585227</v>
+        <v>0.008535456710147292</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01388323468885895</v>
+        <v>0.0138744131425866</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>137767</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>115769</v>
+        <v>115049</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>161940</v>
+        <v>160019</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04209190217193519</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03537099609479996</v>
+        <v>0.03515102568491679</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04947750879277132</v>
+        <v>0.04889069782083424</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>165</v>
@@ -2125,19 +2125,19 @@
         <v>172369</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>148338</v>
+        <v>148352</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>199912</v>
+        <v>200145</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05104000332720078</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04392419634109691</v>
+        <v>0.04392844303666982</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05919568053498041</v>
+        <v>0.05926469051215624</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>303</v>
@@ -2146,19 +2146,19 @@
         <v>310136</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>275212</v>
+        <v>276997</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>346773</v>
+        <v>347566</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04663601902178206</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04138439834248695</v>
+        <v>0.04165288048704334</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05214532070127193</v>
+        <v>0.05226445241191725</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>1314131</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1253899</v>
+        <v>1259440</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1371273</v>
+        <v>1371495</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4015073415164402</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3831047551066327</v>
+        <v>0.3847977911931121</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4189659339997821</v>
+        <v>0.4190339891612023</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1498</v>
@@ -2196,19 +2196,19 @@
         <v>1539200</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1483438</v>
+        <v>1477605</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1596082</v>
+        <v>1599162</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4557706349323732</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4392590466867571</v>
+        <v>0.4375318547222989</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4726136698059161</v>
+        <v>0.4735258145677467</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2790</v>
@@ -2217,19 +2217,19 @@
         <v>2853331</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2766874</v>
+        <v>2771568</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2938491</v>
+        <v>2932018</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4290638858224269</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4160630196824391</v>
+        <v>0.4167689447588083</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4418695073804341</v>
+        <v>0.4408962677299674</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>1523093</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1463443</v>
+        <v>1463830</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1585762</v>
+        <v>1582412</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4653517654156709</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4471268820850089</v>
+        <v>0.4472451859246122</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4844991068283029</v>
+        <v>0.4834756149452522</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1472</v>
@@ -2267,19 +2267,19 @@
         <v>1497868</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1441541</v>
+        <v>1439951</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1554168</v>
+        <v>1555269</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4435317649290447</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4268528145293811</v>
+        <v>0.4263821691551226</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4602025468729881</v>
+        <v>0.4605286215011774</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2965</v>
@@ -2288,19 +2288,19 @@
         <v>3020962</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2939041</v>
+        <v>2942273</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3102050</v>
+        <v>3102338</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4542709081304805</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4419523004606783</v>
+        <v>0.4424383306990526</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4664644663202392</v>
+        <v>0.466507696389829</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>269850</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>239149</v>
+        <v>239444</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>302763</v>
+        <v>306181</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08244752384574201</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07306750756820503</v>
+        <v>0.07315738481317181</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09250343155884851</v>
+        <v>0.09354767738650953</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>116</v>
@@ -2338,19 +2338,19 @@
         <v>122906</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>102526</v>
+        <v>103166</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>148769</v>
+        <v>146088</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03639346013912471</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03035885356646622</v>
+        <v>0.03054833245544168</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04405183929994105</v>
+        <v>0.04325799847075578</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>378</v>
@@ -2359,19 +2359,19 @@
         <v>392756</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>356523</v>
+        <v>356667</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>433164</v>
+        <v>436918</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05905987508519896</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05361139855042341</v>
+        <v>0.05363304563259287</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0651360951162146</v>
+        <v>0.06570066754123322</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>10901</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5805</v>
+        <v>4920</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23402</v>
+        <v>20629</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01127980134547148</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006006618701915076</v>
+        <v>0.005091003443694272</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02421619319909649</v>
+        <v>0.02134628440150442</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2723,19 +2723,19 @@
         <v>26214</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16675</v>
+        <v>17274</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38648</v>
+        <v>38502</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01968514655428851</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01252191442109787</v>
+        <v>0.01297190352309277</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02902290140864826</v>
+        <v>0.02891263212918233</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -2744,19 +2744,19 @@
         <v>37114</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25565</v>
+        <v>26254</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53508</v>
+        <v>52631</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01615048468837716</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0111248198739878</v>
+        <v>0.01142464654901981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02328420432062184</v>
+        <v>0.02290260826634562</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>124385</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104397</v>
+        <v>104498</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146867</v>
+        <v>149002</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.128712164320844</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1080285674488706</v>
+        <v>0.1081332104914374</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1519765554729973</v>
+        <v>0.1541857257584313</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>167</v>
@@ -2794,19 +2794,19 @@
         <v>178380</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>155224</v>
+        <v>153571</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>204807</v>
+        <v>203993</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1339535034867415</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1165648410150123</v>
+        <v>0.1153234370786647</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1537994095041509</v>
+        <v>0.1531881524021322</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>280</v>
@@ -2815,19 +2815,19 @@
         <v>302765</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>268310</v>
+        <v>272342</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>338965</v>
+        <v>340538</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1317493867948331</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1167563609069107</v>
+        <v>0.1185107070584271</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1475020459588345</v>
+        <v>0.1481867829711065</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>454021</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>421284</v>
+        <v>420866</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>486227</v>
+        <v>487781</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4698153435263066</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4359390288840131</v>
+        <v>0.4355067511350864</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5031416167589943</v>
+        <v>0.5047500277403812</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>624</v>
@@ -2865,19 +2865,19 @@
         <v>665098</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>626945</v>
+        <v>631408</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>703498</v>
+        <v>703074</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.499452999493413</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4708019420157633</v>
+        <v>0.4741535263125935</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5282894370034215</v>
+        <v>0.5279706354301479</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1045</v>
@@ -2886,19 +2886,19 @@
         <v>1119119</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1067404</v>
+        <v>1067053</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1164480</v>
+        <v>1166647</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4869896098598688</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4644853462982763</v>
+        <v>0.4643328295227205</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5067285970552077</v>
+        <v>0.5076716724049444</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>325868</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>298864</v>
+        <v>296646</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>356539</v>
+        <v>354898</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3372039569987214</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3092603423544302</v>
+        <v>0.3069653724970647</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3689416945521877</v>
+        <v>0.3672437516560044</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>385</v>
@@ -2936,19 +2936,19 @@
         <v>415919</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>384485</v>
+        <v>383930</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>451360</v>
+        <v>454188</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3123327538588143</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2887277500841127</v>
+        <v>0.288311024572228</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3389469532617114</v>
+        <v>0.3410707218155915</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>694</v>
@@ -2957,19 +2957,19 @@
         <v>741787</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>700112</v>
+        <v>698064</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>790601</v>
+        <v>792299</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3227917286080901</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3046567705066139</v>
+        <v>0.3037654533983928</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3440336674650611</v>
+        <v>0.3447724441355485</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>51207</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38197</v>
+        <v>38682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68786</v>
+        <v>67515</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05298873380865661</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03952612098100611</v>
+        <v>0.04002735597775375</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07117916217305185</v>
+        <v>0.06986391728779622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -3007,19 +3007,19 @@
         <v>46043</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33987</v>
+        <v>33770</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59839</v>
+        <v>60508</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03457559660674273</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02552239231922256</v>
+        <v>0.02535909666573344</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04493569742035265</v>
+        <v>0.04543843374719655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>90</v>
@@ -3028,19 +3028,19 @@
         <v>97250</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>78533</v>
+        <v>80207</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>119732</v>
+        <v>119115</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04231879004883081</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03417396167423595</v>
+        <v>0.03490231023923841</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05210185095396452</v>
+        <v>0.05183350941768514</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>15139</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8786</v>
+        <v>8556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25343</v>
+        <v>24219</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007727914820715817</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004484820419988115</v>
+        <v>0.004367648999232828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01293686528176859</v>
+        <v>0.01236274302093171</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3153,19 +3153,19 @@
         <v>13311</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7862</v>
+        <v>7194</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23297</v>
+        <v>21444</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007598622792985962</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0044879900860431</v>
+        <v>0.004106509737955861</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01329926594078073</v>
+        <v>0.01224153084832628</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -3174,19 +3174,19 @@
         <v>28450</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19956</v>
+        <v>18850</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41243</v>
+        <v>40577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00766687939721755</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005377979087460664</v>
+        <v>0.005079700982581705</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0111145316071112</v>
+        <v>0.01093487243174985</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>81626</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>64919</v>
+        <v>66352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101426</v>
+        <v>100771</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04166697803934838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03313892364895459</v>
+        <v>0.03387018989673025</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05177450865614433</v>
+        <v>0.05143999327967226</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>106</v>
@@ -3224,19 +3224,19 @@
         <v>116037</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95516</v>
+        <v>95285</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138624</v>
+        <v>139362</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06624066612982021</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05452616013784126</v>
+        <v>0.05439392634196574</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07913448893128462</v>
+        <v>0.0795558069146438</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>184</v>
@@ -3245,19 +3245,19 @@
         <v>197663</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>168343</v>
+        <v>169919</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>223958</v>
+        <v>227647</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05326758084410979</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04536613013886472</v>
+        <v>0.04579084197314062</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06035381569839165</v>
+        <v>0.06134781310274687</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>710743</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>667006</v>
+        <v>667432</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>752672</v>
+        <v>757870</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3628084431528136</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3404821335464938</v>
+        <v>0.3406998519235424</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3842113550363795</v>
+        <v>0.3868649632121426</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>654</v>
@@ -3295,19 +3295,19 @@
         <v>701190</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>656413</v>
+        <v>658239</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>740164</v>
+        <v>746453</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4002790712138307</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3747177501099824</v>
+        <v>0.3757601248497418</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4225277138097394</v>
+        <v>0.4261180333303032</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1325</v>
@@ -3316,19 +3316,19 @@
         <v>1411933</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1350673</v>
+        <v>1353910</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1472175</v>
+        <v>1469434</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3804973578725113</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3639886350966047</v>
+        <v>0.3648609252033994</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3967319359776484</v>
+        <v>0.3959931040066788</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>979076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>936213</v>
+        <v>929968</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1026064</v>
+        <v>1027726</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4997823605511536</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4779025919915825</v>
+        <v>0.4747144660952788</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5237682907886427</v>
+        <v>0.5246166640973547</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>726</v>
@@ -3366,19 +3366,19 @@
         <v>780669</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>737540</v>
+        <v>737220</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>827018</v>
+        <v>825633</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4456501800486839</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4210301606474919</v>
+        <v>0.4208470701032307</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4721089758572992</v>
+        <v>0.4713182760618378</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1652</v>
@@ -3387,19 +3387,19 @@
         <v>1759744</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1699583</v>
+        <v>1695693</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1826380</v>
+        <v>1818971</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4742279577015346</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4580151731594628</v>
+        <v>0.4569670262820954</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4921854366077669</v>
+        <v>0.4901888259686188</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>172420</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147057</v>
+        <v>147102</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>196498</v>
+        <v>197907</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08801430343596855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07506705837923303</v>
+        <v>0.07509039888242511</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1003052230607889</v>
+        <v>0.1010241250504029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>131</v>
@@ -3437,19 +3437,19 @@
         <v>140546</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>119903</v>
+        <v>120003</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168033</v>
+        <v>164686</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08023145981467925</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06844740716244321</v>
+        <v>0.06850443994852307</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09592285666004355</v>
+        <v>0.09401214302533822</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>293</v>
@@ -3458,19 +3458,19 @@
         <v>312966</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>279189</v>
+        <v>282006</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>353219</v>
+        <v>350598</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08434022418462674</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07523788381640928</v>
+        <v>0.075997001440643</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09518792672745011</v>
+        <v>0.09448157898952377</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>4369</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15061</v>
+        <v>13528</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009134656737079186</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001909214220068788</v>
+        <v>0.001874656169715328</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03149151791281476</v>
+        <v>0.02828677820317279</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3583,19 +3583,19 @@
         <v>6017</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1772</v>
+        <v>1339</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14475</v>
+        <v>15559</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01314987463217893</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003871947446758319</v>
+        <v>0.002925998599351647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03163519559090804</v>
+        <v>0.03400535615200762</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3604,19 +3604,19 @@
         <v>10385</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4167</v>
+        <v>4350</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21386</v>
+        <v>21011</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01109788336669458</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004453340848899768</v>
+        <v>0.004648866162184065</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02285349842224012</v>
+        <v>0.02245229371420147</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>31231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19877</v>
+        <v>20926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46777</v>
+        <v>47486</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0653038100299984</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04156268288751899</v>
+        <v>0.04375517881129307</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0978112441177426</v>
+        <v>0.0992933432513516</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -3654,19 +3654,19 @@
         <v>30161</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20380</v>
+        <v>20299</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>43407</v>
+        <v>43177</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06591752852749459</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04454054265867842</v>
+        <v>0.04436352940150745</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09486712872898675</v>
+        <v>0.09436406773781368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>50</v>
@@ -3675,19 +3675,19 @@
         <v>61392</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45825</v>
+        <v>44311</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>80410</v>
+        <v>79312</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06560388552499022</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.048969466329488</v>
+        <v>0.04735140624957938</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08592719989854851</v>
+        <v>0.08475328745825583</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>164347</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>142503</v>
+        <v>143007</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>188525</v>
+        <v>186051</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3436496301848375</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2979723899731965</v>
+        <v>0.2990264416106003</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3942051524057384</v>
+        <v>0.389032649712803</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>162</v>
@@ -3725,19 +3725,19 @@
         <v>180910</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>160135</v>
+        <v>158623</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>203874</v>
+        <v>202743</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3953849390093578</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3499819584235704</v>
+        <v>0.346676370912291</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4455749484333286</v>
+        <v>0.4431028556179743</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>311</v>
@@ -3746,19 +3746,19 @@
         <v>345257</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>314418</v>
+        <v>312623</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>374504</v>
+        <v>377780</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3689454269832206</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3359897927707123</v>
+        <v>0.3340721271513038</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4001989250316402</v>
+        <v>0.4036995532052094</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>231343</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>205817</v>
+        <v>209404</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>255254</v>
+        <v>254872</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.483736555103085</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4303628583694832</v>
+        <v>0.4378622167201488</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5337359996506931</v>
+        <v>0.5329354065318485</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>194</v>
@@ -3796,19 +3796,19 @@
         <v>212603</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>190922</v>
+        <v>191842</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>234405</v>
+        <v>234282</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4646512901746001</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4172670696226869</v>
+        <v>0.4192789452979492</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5123013824617411</v>
+        <v>0.5120318889083871</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>407</v>
@@ -3817,19 +3817,19 @@
         <v>443946</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>413573</v>
+        <v>411823</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>474274</v>
+        <v>474833</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4744048821229974</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4419481216268408</v>
+        <v>0.4400787528112256</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5068141075224392</v>
+        <v>0.5074118109152722</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>46951</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34851</v>
+        <v>35380</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>61317</v>
+        <v>61436</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09817534794499996</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07287394098013307</v>
+        <v>0.07397939342273933</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1282126449880907</v>
+        <v>0.128461809846076</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -3867,19 +3867,19 @@
         <v>27863</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19000</v>
+        <v>17867</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40541</v>
+        <v>39643</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06089636765636856</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04152492657575645</v>
+        <v>0.0390499686859969</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08860343156269908</v>
+        <v>0.08664125963289641</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>72</v>
@@ -3888,19 +3888,19 @@
         <v>74815</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>58011</v>
+        <v>61354</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94552</v>
+        <v>93039</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07994792200209715</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06199144922752108</v>
+        <v>0.06556340613738533</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1010391221076639</v>
+        <v>0.09942209272164038</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>30408</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21239</v>
+        <v>19632</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45298</v>
+        <v>44088</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008934052259561264</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006239975344586646</v>
+        <v>0.005767833331193139</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01330866111900136</v>
+        <v>0.01295323497882735</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -4013,19 +4013,19 @@
         <v>45541</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32173</v>
+        <v>32823</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61780</v>
+        <v>61022</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01286133635939789</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009086099199974725</v>
+        <v>0.00926944316900713</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01744715793729288</v>
+        <v>0.01723314311753519</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -4034,19 +4034,19 @@
         <v>75950</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60577</v>
+        <v>59378</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96545</v>
+        <v>94495</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01093652578105147</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008722862202076105</v>
+        <v>0.00855029288450183</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01390216054552678</v>
+        <v>0.01360702313962945</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>237242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>207756</v>
+        <v>210466</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>272601</v>
+        <v>272730</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06970266747060234</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06103952300557441</v>
+        <v>0.06183567330073599</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08009134185522147</v>
+        <v>0.08012928626514193</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>299</v>
@@ -4084,19 +4084,19 @@
         <v>324578</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>292640</v>
+        <v>290980</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>362575</v>
+        <v>363032</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09166376856163504</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08264439223583211</v>
+        <v>0.08217545117814036</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1023946203286064</v>
+        <v>0.1025236093871011</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>514</v>
@@ -4105,19 +4105,19 @@
         <v>561819</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>514257</v>
+        <v>514212</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>609573</v>
+        <v>612316</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0809003609197195</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07405158064525427</v>
+        <v>0.0740450989609234</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08777668894562299</v>
+        <v>0.08817172632115987</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>1329112</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1270594</v>
+        <v>1270127</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1388114</v>
+        <v>1385209</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3904986225647319</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3733060293991717</v>
+        <v>0.3731686339061466</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.407833843126197</v>
+        <v>0.4069801196613708</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1440</v>
@@ -4155,19 +4155,19 @@
         <v>1547197</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1487937</v>
+        <v>1483473</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1608144</v>
+        <v>1615254</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4369431361606749</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4202073619843301</v>
+        <v>0.4189468021892597</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4541551736224926</v>
+        <v>0.4561630332857993</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2681</v>
@@ -4176,19 +4176,19 @@
         <v>2876309</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2791917</v>
+        <v>2789507</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2963846</v>
+        <v>2965024</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4141801048130461</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4020278577625948</v>
+        <v>0.4016809401718026</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4267852461182857</v>
+        <v>0.4269548841973703</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>1536286</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1475071</v>
+        <v>1480962</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1593059</v>
+        <v>1600498</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4513673455520759</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4333822284839534</v>
+        <v>0.4351128860125553</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4680473590426801</v>
+        <v>0.4702331940833927</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1305</v>
@@ -4226,19 +4226,19 @@
         <v>1409190</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1348080</v>
+        <v>1348248</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1467385</v>
+        <v>1474211</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3979685912689004</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3807105973110431</v>
+        <v>0.3807579179321335</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4144032925224597</v>
+        <v>0.4163311299987178</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2753</v>
@@ -4247,19 +4247,19 @@
         <v>2945476</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2859192</v>
+        <v>2868599</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3028036</v>
+        <v>3030320</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4241399821084511</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4117152774673496</v>
+        <v>0.4130699112120093</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.436028399052795</v>
+        <v>0.4363572762177336</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>270579</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>239774</v>
+        <v>240332</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>302881</v>
+        <v>303065</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07949731215302862</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07044660234184046</v>
+        <v>0.07061047397987415</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08898780832888277</v>
+        <v>0.08904173357083392</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>199</v>
@@ -4297,19 +4297,19 @@
         <v>214452</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>188425</v>
+        <v>184633</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>244201</v>
+        <v>240176</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06056316764939174</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05321313772219585</v>
+        <v>0.05214196316451498</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06896477298773417</v>
+        <v>0.06782785840173298</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>455</v>
@@ -4318,19 +4318,19 @@
         <v>485031</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>444731</v>
+        <v>444883</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>534294</v>
+        <v>529977</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06984302637773179</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06404000172908775</v>
+        <v>0.06406179661539284</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07693671448252397</v>
+        <v>0.07631508519883948</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>7842</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3486</v>
+        <v>3593</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14199</v>
+        <v>14859</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01045297621381657</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004646648480637659</v>
+        <v>0.004789749217474803</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01892697642364038</v>
+        <v>0.01980640237054828</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4682,19 +4682,19 @@
         <v>10422</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4726</v>
+        <v>5223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18466</v>
+        <v>18912</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01050042676526773</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00476172388212192</v>
+        <v>0.005262490548922427</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01860511074292932</v>
+        <v>0.01905397792032531</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -4703,19 +4703,19 @@
         <v>18264</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11166</v>
+        <v>10509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28883</v>
+        <v>28651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0104800002474211</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006407022583237173</v>
+        <v>0.00603000081047752</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01657305282585512</v>
+        <v>0.01643974984632118</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>20252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12728</v>
+        <v>12263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30630</v>
+        <v>29906</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0269947909772505</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01696544671136711</v>
+        <v>0.01634546952599911</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04082735526082865</v>
+        <v>0.03986282126653454</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -4753,19 +4753,19 @@
         <v>53027</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39112</v>
+        <v>39685</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68509</v>
+        <v>68893</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05342527099236666</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03940564876231738</v>
+        <v>0.03998355091876879</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06902428566787674</v>
+        <v>0.06941138886687857</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -4774,19 +4774,19 @@
         <v>73279</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57773</v>
+        <v>58312</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>94028</v>
+        <v>92680</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04204747547234278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03315051287751662</v>
+        <v>0.03345964092937707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05395344652239362</v>
+        <v>0.05318032705994995</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>249451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>225635</v>
+        <v>226320</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>274170</v>
+        <v>276991</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.332502595729303</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3007570295220579</v>
+        <v>0.3016707205558631</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3654517654100076</v>
+        <v>0.3692118991571042</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>360</v>
@@ -4824,19 +4824,19 @@
         <v>404990</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>371628</v>
+        <v>371988</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>437346</v>
+        <v>435185</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4080351831254745</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3744227214883439</v>
+        <v>0.374785562427637</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4406345878757099</v>
+        <v>0.4384579935161987</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>616</v>
@@ -4845,19 +4845,19 @@
         <v>654441</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>618894</v>
+        <v>612566</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>698036</v>
+        <v>695353</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.375519907806961</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3551228973220665</v>
+        <v>0.3514919430912165</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4005347760083764</v>
+        <v>0.3989952423607122</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>341644</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>316335</v>
+        <v>316013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>368618</v>
+        <v>370089</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4553899339371704</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4216548038222926</v>
+        <v>0.4212254662801128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4913444623360007</v>
+        <v>0.4933057466336462</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>334</v>
@@ -4895,19 +4895,19 @@
         <v>370767</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>339962</v>
+        <v>341013</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>404268</v>
+        <v>403453</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3735556094537748</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3425190178974499</v>
+        <v>0.3435772190161802</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4073082291116805</v>
+        <v>0.406487332252254</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>677</v>
@@ -4916,19 +4916,19 @@
         <v>712411</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>670639</v>
+        <v>668035</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>752178</v>
+        <v>753685</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4087836571456384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3848148053615009</v>
+        <v>0.3833205194717367</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4316015877985116</v>
+        <v>0.4324664161522155</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>131034</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>111024</v>
+        <v>109916</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>150333</v>
+        <v>153675</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1746597031424595</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1479880041330512</v>
+        <v>0.1465115197735157</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2003838945881045</v>
+        <v>0.2048384864705026</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>139</v>
@@ -4966,19 +4966,19 @@
         <v>153330</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>131513</v>
+        <v>129363</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>180837</v>
+        <v>177929</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1544835096631164</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.132501807009861</v>
+        <v>0.1303356769593201</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1821969009919513</v>
+        <v>0.1792669459566332</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>268</v>
@@ -4987,19 +4987,19 @@
         <v>284364</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>253175</v>
+        <v>257338</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>315207</v>
+        <v>319441</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1631689593276368</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1452724053180397</v>
+        <v>0.1476613786898338</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1808666076804449</v>
+        <v>0.1832964064026767</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>9428</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4153</v>
+        <v>4612</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18464</v>
+        <v>17632</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004559462368187611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002008458460936385</v>
+        <v>0.002230331731162383</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008928943016546245</v>
+        <v>0.008526434408813871</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5112,19 +5112,19 @@
         <v>16829</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9271</v>
+        <v>9943</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26262</v>
+        <v>27979</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008488138061359143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004675847287812743</v>
+        <v>0.005014778529666398</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01324576555291745</v>
+        <v>0.0141116039725274</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -5133,19 +5133,19 @@
         <v>26258</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17458</v>
+        <v>17114</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39020</v>
+        <v>38478</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006482471573168181</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00431015153291568</v>
+        <v>0.004225190122784199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009633241200784065</v>
+        <v>0.009499582317059541</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>55528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42679</v>
+        <v>42594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>73561</v>
+        <v>73918</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02685270962282123</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02063911269667611</v>
+        <v>0.02059779869830292</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03557297124774935</v>
+        <v>0.03574562132578576</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -5183,19 +5183,19 @@
         <v>68074</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52860</v>
+        <v>52726</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>85344</v>
+        <v>88659</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03433489788528725</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02666115146831499</v>
+        <v>0.02659370247282763</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04304524691022242</v>
+        <v>0.04471713497149597</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>116</v>
@@ -5204,19 +5204,19 @@
         <v>123603</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>103798</v>
+        <v>100599</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>147516</v>
+        <v>147883</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03051509308886507</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0256256703751438</v>
+        <v>0.02483587003556722</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03641890802658112</v>
+        <v>0.0365095283882927</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>708940</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>665676</v>
+        <v>670754</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>753691</v>
+        <v>758127</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3428334917373968</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3219119745584663</v>
+        <v>0.3243675504991357</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3644747418666184</v>
+        <v>0.3666199293253338</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>745</v>
@@ -5254,19 +5254,19 @@
         <v>778095</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>735489</v>
+        <v>733086</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>825564</v>
+        <v>822769</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3924498463049192</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3709605655105076</v>
+        <v>0.3697483598893998</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4163916472119059</v>
+        <v>0.4149819155702362</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1413</v>
@@ -5275,19 +5275,19 @@
         <v>1487035</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1427312</v>
+        <v>1421086</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1550222</v>
+        <v>1544669</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3671197179374273</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3523753901086649</v>
+        <v>0.350838135990961</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3827193707249195</v>
+        <v>0.381348334696453</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>999093</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>951461</v>
+        <v>950922</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1043387</v>
+        <v>1042989</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.48314761198388</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4601134124499208</v>
+        <v>0.4598527100528889</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5045678333331927</v>
+        <v>0.5043753712490605</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>801</v>
@@ -5325,19 +5325,19 @@
         <v>831777</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>786261</v>
+        <v>786661</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>876421</v>
+        <v>876342</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4195251838771606</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.396568513100681</v>
+        <v>0.39677008502358</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4420423453489362</v>
+        <v>0.4420026371288078</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1742</v>
@@ -5346,19 +5346,19 @@
         <v>1830869</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1769095</v>
+        <v>1768705</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1894501</v>
+        <v>1897108</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4520056892476543</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4367548873571488</v>
+        <v>0.4366585767216491</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4677149699167557</v>
+        <v>0.4683586805024249</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>294894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>262539</v>
+        <v>263065</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>326455</v>
+        <v>326962</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1426067242877143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1269603321214888</v>
+        <v>0.127214591945452</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1578692118931503</v>
+        <v>0.1581143348271856</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>277</v>
@@ -5396,19 +5396,19 @@
         <v>287886</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>258490</v>
+        <v>257796</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>323922</v>
+        <v>319268</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1452019338712738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1303754260974226</v>
+        <v>0.1300254390456639</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1633773855015849</v>
+        <v>0.161029948876405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>551</v>
@@ -5417,19 +5417,19 @@
         <v>582780</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>538220</v>
+        <v>539434</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>627391</v>
+        <v>626253</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1438770281528852</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1328758742149759</v>
+        <v>0.133175671370233</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1548906118320847</v>
+        <v>0.1546095653232288</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>4121</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11397</v>
+        <v>12005</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007599327130890069</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002338530098156751</v>
+        <v>0.00234724166804288</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02101417491499502</v>
+        <v>0.02213628355070519</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -5542,19 +5542,19 @@
         <v>13243</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7683</v>
+        <v>6910</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22791</v>
+        <v>22591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02420633928767537</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01404383313908211</v>
+        <v>0.01263003201124059</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04165852338303508</v>
+        <v>0.04129305453319686</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -5563,19 +5563,19 @@
         <v>17364</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10259</v>
+        <v>10330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27697</v>
+        <v>27940</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0159390292989952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009416828052426779</v>
+        <v>0.009482313870887356</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0254235853161164</v>
+        <v>0.02564642794630474</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>24546</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15521</v>
+        <v>15552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37234</v>
+        <v>36755</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04525902324060731</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.028618922600709</v>
+        <v>0.02867495301748039</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06865341029011789</v>
+        <v>0.06777142447364248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -5613,19 +5613,19 @@
         <v>26848</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17990</v>
+        <v>18353</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39708</v>
+        <v>38280</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04907390241844093</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03288265598356809</v>
+        <v>0.0335471866121807</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07257951611299839</v>
+        <v>0.06997026982244917</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -5634,19 +5634,19 @@
         <v>51394</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38835</v>
+        <v>38124</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69724</v>
+        <v>67575</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04717477761292161</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03564702379826361</v>
+        <v>0.03499480726052186</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06400057327379229</v>
+        <v>0.0620273446563394</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>199730</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>176676</v>
+        <v>177263</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>223818</v>
+        <v>221699</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3682723375731327</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.325764049607886</v>
+        <v>0.3268471706186528</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4126874242684145</v>
+        <v>0.4087809212815126</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>212</v>
@@ -5684,19 +5684,19 @@
         <v>220730</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>198283</v>
+        <v>197887</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>243566</v>
+        <v>243865</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4034612226298184</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.36243226157254</v>
+        <v>0.3617073472060027</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.445202775691075</v>
+        <v>0.4457480294509843</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>396</v>
@@ -5705,19 +5705,19 @@
         <v>420459</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>388435</v>
+        <v>386403</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>454491</v>
+        <v>455492</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3859434766214979</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.356548172838444</v>
+        <v>0.3546829272146045</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4171811915846527</v>
+        <v>0.418100887178442</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>250219</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>226917</v>
+        <v>226995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>274115</v>
+        <v>273010</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4613675729771627</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4184021513077583</v>
+        <v>0.4185451415703115</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5054291354358376</v>
+        <v>0.5033911676636804</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>217</v>
@@ -5755,19 +5755,19 @@
         <v>228944</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>205713</v>
+        <v>204562</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>252042</v>
+        <v>252350</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4184757381959684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3760121818346299</v>
+        <v>0.3739080803040164</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.460695009257329</v>
+        <v>0.4612584177524955</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>446</v>
@@ -5776,19 +5776,19 @@
         <v>479163</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>443864</v>
+        <v>448995</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>511995</v>
+        <v>514999</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4398281699742823</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4074265887469594</v>
+        <v>0.4121371278142068</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4699646590457214</v>
+        <v>0.4727222999420701</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>63726</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49385</v>
+        <v>49485</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79807</v>
+        <v>80123</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1175017390782072</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09105911481347434</v>
+        <v>0.09124370218536584</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.147152296635533</v>
+        <v>0.1477352519637723</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -5826,19 +5826,19 @@
         <v>57326</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43640</v>
+        <v>43985</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>71096</v>
+        <v>72779</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1047827974680968</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07976667963811419</v>
+        <v>0.0803971875849234</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1299536189983788</v>
+        <v>0.1330283441760619</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>116</v>
@@ -5847,19 +5847,19 @@
         <v>121052</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>101752</v>
+        <v>100426</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>143085</v>
+        <v>143915</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.111114546492303</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09339955438939802</v>
+        <v>0.09218235695646619</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1313394610625076</v>
+        <v>0.1321012883528325</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>21392</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13856</v>
+        <v>13566</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32703</v>
+        <v>32387</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006365797590561379</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004123191171144485</v>
+        <v>0.00403702888328202</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009731600235649836</v>
+        <v>0.009637785499034301</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -5972,19 +5972,19 @@
         <v>40494</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29151</v>
+        <v>28289</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55876</v>
+        <v>55625</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01149656513643854</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008276052435713525</v>
+        <v>0.008031340471703917</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01586343268500056</v>
+        <v>0.01579215518989433</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -5993,19 +5993,19 @@
         <v>61886</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46100</v>
+        <v>46532</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>80698</v>
+        <v>78623</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008991503751642449</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006697858542403129</v>
+        <v>0.006760613654921368</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01172475598036985</v>
+        <v>0.01142328595238531</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>100326</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>80869</v>
+        <v>82003</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>122523</v>
+        <v>123489</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02985501807271492</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02406493360948815</v>
+        <v>0.02440239349396627</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0364603918183254</v>
+        <v>0.03674787396854782</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>138</v>
@@ -6043,19 +6043,19 @@
         <v>147949</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>124921</v>
+        <v>123396</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>175142</v>
+        <v>173392</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04200362055035532</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03546573746012676</v>
+        <v>0.03503281738075013</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04972377359098368</v>
+        <v>0.04922706084601922</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>232</v>
@@ -6064,19 +6064,19 @@
         <v>248275</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>216244</v>
+        <v>219001</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>282569</v>
+        <v>283221</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03607215032219627</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03141829541749454</v>
+        <v>0.0318188796943268</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04105477812124592</v>
+        <v>0.0411494861287218</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>1158120</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1103653</v>
+        <v>1103104</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1218347</v>
+        <v>1216985</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3446326761443202</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3284243515146211</v>
+        <v>0.3282609812318678</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3625549151889467</v>
+        <v>0.3621496043597312</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1317</v>
@@ -6114,19 +6114,19 @@
         <v>1403815</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1350083</v>
+        <v>1338474</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1467174</v>
+        <v>1461184</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3985519099584917</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3832970877899202</v>
+        <v>0.3800012610806701</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4165399071456631</v>
+        <v>0.4148392361601322</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2425</v>
@@ -6135,19 +6135,19 @@
         <v>2561935</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2481645</v>
+        <v>2474971</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2646907</v>
+        <v>2648705</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.372226221001055</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.360560844031843</v>
+        <v>0.3595911273689587</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.384571824949098</v>
+        <v>0.3848330885613003</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>1590956</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1530492</v>
+        <v>1531119</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1653531</v>
+        <v>1652299</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4734356113081262</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4554428232124805</v>
+        <v>0.4556293304217284</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4920565733007341</v>
+        <v>0.4916901953750401</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1352</v>
@@ -6185,19 +6185,19 @@
         <v>1431488</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1370791</v>
+        <v>1369097</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1488261</v>
+        <v>1491959</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4064085403711001</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3891761617466878</v>
+        <v>0.3886951931662045</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4225267015770875</v>
+        <v>0.4235764073009791</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2865</v>
@@ -6206,19 +6206,19 @@
         <v>3022444</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2941289</v>
+        <v>2937551</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3111396</v>
+        <v>3112371</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4391340391661594</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4273429206440946</v>
+        <v>0.4267997778571579</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4520579464662205</v>
+        <v>0.452199547227254</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>489654</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>447818</v>
+        <v>447607</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>532275</v>
+        <v>530681</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1457108968842773</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1332612691456404</v>
+        <v>0.1331984798091775</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1583939544147153</v>
+        <v>0.1579198015856527</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>472</v>
@@ -6256,19 +6256,19 @@
         <v>498543</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>457311</v>
+        <v>458411</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>538794</v>
+        <v>540272</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1415393639836144</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1298334257201349</v>
+        <v>0.1301456414634508</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1529669732847697</v>
+        <v>0.1533866647738816</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>935</v>
@@ -6277,19 +6277,19 @@
         <v>988196</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>933298</v>
+        <v>929455</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1046867</v>
+        <v>1046544</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1435760857589469</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1355998959839868</v>
+        <v>0.1350415030137593</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1521004483385368</v>
+        <v>0.1520534011686225</v>
       </c>
     </row>
     <row r="27">
